--- a/Datasets/GWR with Child Obesity (Year Six).xlsx
+++ b/Datasets/GWR with Child Obesity (Year Six).xlsx
@@ -29,8 +29,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sig_RUC_SD" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sig_RUC_FFF" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sig_RUC_E_Comm" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model 1 Parameters Summary" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model 1_Sig" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18419,292 +18417,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Median</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Intercept</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17.342</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.446</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.324</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16.118</v>
-      </c>
-      <c r="G2" t="n">
-        <v>27.21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Combined Decile</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.269</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1.631</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.076</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.325</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>District</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Median</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>LSOA_Count</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Maximum</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>Total_LSOAs</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>LSOA_Coverage</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cherwell</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.914</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.888</v>
-      </c>
-      <c r="E2" t="n">
-        <v>38</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-1.446</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.651</v>
-      </c>
-      <c r="H2" t="n">
-        <v>102</v>
-      </c>
-      <c r="I2" t="n">
-        <v>37.255</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Oxford</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-1.017</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-1.085</v>
-      </c>
-      <c r="E3" t="n">
-        <v>40</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-1.367</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.62</v>
-      </c>
-      <c r="H3" t="n">
-        <v>85</v>
-      </c>
-      <c r="I3" t="n">
-        <v>47.059</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>South Oxfordshire</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-1.042</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.959</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-1.631</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0.642</v>
-      </c>
-      <c r="H4" t="n">
-        <v>93</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.828</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Vale of White Horse</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.881</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.858</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-1.119</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.615</v>
-      </c>
-      <c r="H5" t="n">
-        <v>81</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.173</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
